--- a/webroot/excel/archivo_de_asistencia Actualizado2.xlsx
+++ b/webroot/excel/archivo_de_asistencia Actualizado2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30645" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30647" uniqueCount="1235">
   <si>
     <t>emp_cedula</t>
   </si>
@@ -3699,6 +3699,12 @@
   </si>
   <si>
     <t>Kim</t>
+  </si>
+  <si>
+    <t>EMPLEADO</t>
+  </si>
+  <si>
+    <t>CORECCION</t>
   </si>
 </sst>
 </file>
@@ -3708,7 +3714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3723,6 +3729,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3745,7 +3757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3766,6 +3778,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
